--- a/item_tracker/locations.xlsx
+++ b/item_tracker/locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\Item_tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Documents\GitHub\item_tracker\item_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518DE707-FEC1-49EA-AA3E-DA8F97885710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EA4873-163C-42D8-B04B-DD980CF4BC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,92 +396,211 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
